--- a/data/output/FV2404_FV2310/UTILMD/55002.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19796" uniqueCount="1212">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19817" uniqueCount="1212">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3914,6 +3914,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1018" totalsRowShown="0">
+  <autoFilter ref="A1:U1018"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4203,7 +4233,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -49188,5 +49221,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55002.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23931" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23641" uniqueCount="2207">
   <si>
     <t>#</t>
   </si>
@@ -14539,9 +14539,7 @@
         <v>715</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L140" s="7"/>
       <c r="M140" s="2" t="s">
         <v>52</v>
       </c>
@@ -14595,9 +14593,7 @@
         <v>715</v>
       </c>
       <c r="K141" s="2"/>
-      <c r="L141" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L141" s="7"/>
       <c r="M141" s="2" t="s">
         <v>52</v>
       </c>
@@ -14651,9 +14647,7 @@
         <v>715</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L142" s="7"/>
       <c r="M142" s="2" t="s">
         <v>52</v>
       </c>
@@ -15079,9 +15073,7 @@
         <v>715</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L150" s="7"/>
       <c r="M150" s="2" t="s">
         <v>54</v>
       </c>
@@ -15332,46 +15324,44 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2" t="s">
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K155" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M155" s="2" t="s">
+      <c r="L155" s="7"/>
+      <c r="M155" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="N155" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2" t="s">
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="V155" s="2" t="s">
+      <c r="V155" s="5" t="s">
         <v>871</v>
       </c>
     </row>
@@ -15642,44 +15632,42 @@
       </c>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
+      <c r="C161" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="K161" s="5"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N161" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2" t="s">
+      <c r="N161" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V161" s="2"/>
+      <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="2" t="s">
@@ -15871,9 +15859,7 @@
         <v>715</v>
       </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L165" s="7"/>
       <c r="M165" s="2" t="s">
         <v>58</v>
       </c>
@@ -15900,44 +15886,42 @@
       <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="C166" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K166" s="2"/>
-      <c r="L166" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="K166" s="5"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N166" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="N166" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V166" s="2"/>
+      <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="2" t="s">
@@ -16330,46 +16314,44 @@
       <c r="V174" s="9"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M175" s="2" t="s">
+      <c r="L175" s="7"/>
+      <c r="M175" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="N175" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2" t="s">
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="V175" s="2" t="s">
+      <c r="V175" s="5" t="s">
         <v>872</v>
       </c>
     </row>
@@ -16856,44 +16838,42 @@
       <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2" t="s">
+      <c r="C185" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M185" s="2" t="s">
+      <c r="K185" s="5"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N185" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2" t="s">
+      <c r="N185" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V185" s="2"/>
+      <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="2" t="s">
@@ -17131,9 +17111,7 @@
         <v>749</v>
       </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L190" s="7"/>
       <c r="M190" s="2" t="s">
         <v>64</v>
       </c>
@@ -17160,46 +17138,44 @@
       <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2" t="s">
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M191" s="2" t="s">
+      <c r="L191" s="7"/>
+      <c r="M191" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="N191" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2" t="s">
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="V191" s="2" t="s">
+      <c r="V191" s="5" t="s">
         <v>872</v>
       </c>
     </row>
@@ -17690,46 +17666,44 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>1397</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
+      <c r="N201" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="V201" s="2" t="s">
+      <c r="V201" s="5" t="s">
         <v>874</v>
       </c>
     </row>
@@ -17892,44 +17866,42 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="K205" s="5"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V205" s="2"/>
+      <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="2" t="s">
@@ -18167,9 +18139,7 @@
         <v>715</v>
       </c>
       <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L210" s="7"/>
       <c r="M210" s="2" t="s">
         <v>67</v>
       </c>
@@ -18250,44 +18220,42 @@
       <c r="V211" s="2"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2" t="s">
+      <c r="C212" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K212" s="2"/>
-      <c r="L212" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M212" s="2" t="s">
+      <c r="K212" s="5"/>
+      <c r="L212" s="7"/>
+      <c r="M212" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N212" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2" t="s">
+      <c r="N212" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V212" s="2"/>
+      <c r="V212" s="5"/>
     </row>
     <row r="213" spans="1:22">
       <c r="A213" s="2" t="s">
@@ -18394,46 +18362,44 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2" t="s">
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="K215" s="2" t="s">
+      <c r="K215" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="L215" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M215" s="2" t="s">
+      <c r="L215" s="7"/>
+      <c r="M215" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N215" s="2" t="s">
+      <c r="N215" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2" t="s">
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="V215" s="2" t="s">
+      <c r="V215" s="5" t="s">
         <v>875</v>
       </c>
     </row>
@@ -18704,46 +18670,44 @@
       </c>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2" t="s">
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="K221" s="2" t="s">
+      <c r="K221" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="L221" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M221" s="2" t="s">
+      <c r="L221" s="7"/>
+      <c r="M221" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N221" s="2" t="s">
+      <c r="N221" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2" t="s">
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="V221" s="2" t="s">
+      <c r="V221" s="5" t="s">
         <v>876</v>
       </c>
     </row>
@@ -19053,9 +19017,7 @@
       <c r="K227" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="L227" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L227" s="7"/>
       <c r="M227" s="2" t="s">
         <v>71</v>
       </c>
@@ -19084,46 +19046,44 @@
       </c>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2" t="s">
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K228" s="2" t="s">
+      <c r="K228" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="L228" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M228" s="2" t="s">
+      <c r="L228" s="7"/>
+      <c r="M228" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N228" s="2" t="s">
+      <c r="N228" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2" t="s">
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+      <c r="U228" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V228" s="2" t="s">
+      <c r="V228" s="5" t="s">
         <v>879</v>
       </c>
     </row>
@@ -19348,44 +19308,42 @@
       <c r="V232" s="2"/>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="5" t="s">
         <v>1429</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2" t="s">
+      <c r="C233" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K233" s="2"/>
-      <c r="L233" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M233" s="2" t="s">
+      <c r="K233" s="5"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N233" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2" t="s">
+      <c r="N233" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V233" s="2"/>
+      <c r="V233" s="5"/>
     </row>
     <row r="234" spans="1:22">
       <c r="A234" s="2" t="s">
@@ -19550,44 +19508,42 @@
       <c r="V236" s="2"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="5" t="s">
         <v>1433</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2" t="s">
+      <c r="C237" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M237" s="2" t="s">
+      <c r="K237" s="5"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N237" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2" t="s">
+      <c r="N237" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V237" s="2"/>
+      <c r="V237" s="5"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="2" t="s">
@@ -20099,9 +20055,7 @@
         <v>715</v>
       </c>
       <c r="K247" s="2"/>
-      <c r="L247" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L247" s="7"/>
       <c r="M247" s="2" t="s">
         <v>60</v>
       </c>
@@ -20256,44 +20210,42 @@
       <c r="V250" s="9"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="C251" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K251" s="2"/>
-      <c r="L251" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="K251" s="5"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="N251" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V251" s="2"/>
+      <c r="V251" s="5"/>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="2" t="s">
@@ -20454,46 +20406,44 @@
       <c r="V254" s="2"/>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="5" t="s">
         <v>1451</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2" t="s">
+      <c r="C255" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="K255" s="2" t="s">
+      <c r="K255" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="L255" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M255" s="2" t="s">
+      <c r="L255" s="7"/>
+      <c r="M255" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N255" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2" t="s">
+      <c r="N255" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="V255" s="2" t="s">
+      <c r="V255" s="5" t="s">
         <v>882</v>
       </c>
     </row>
@@ -20656,44 +20606,42 @@
       <c r="V258" s="2"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="5" t="s">
         <v>1455</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2" t="s">
+      <c r="C259" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="K259" s="2"/>
-      <c r="L259" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M259" s="2" t="s">
+      <c r="K259" s="5"/>
+      <c r="L259" s="7"/>
+      <c r="M259" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N259" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
-      <c r="Q259" s="2"/>
-      <c r="R259" s="2"/>
-      <c r="S259" s="2"/>
-      <c r="T259" s="2"/>
-      <c r="U259" s="2" t="s">
+      <c r="N259" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="V259" s="2"/>
+      <c r="V259" s="5"/>
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="2" t="s">
@@ -20854,46 +20802,44 @@
       <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>1459</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="C263" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="K263" s="2" t="s">
+      <c r="K263" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="L263" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="N263" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="V263" s="2" t="s">
+      <c r="V263" s="5" t="s">
         <v>883</v>
       </c>
     </row>
@@ -21164,46 +21110,44 @@
       </c>
     </row>
     <row r="269" spans="1:22">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2" t="s">
+      <c r="C269" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="K269" s="2" t="s">
+      <c r="K269" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="L269" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M269" s="2" t="s">
+      <c r="L269" s="7"/>
+      <c r="M269" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N269" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2" t="s">
+      <c r="N269" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="V269" s="2" t="s">
+      <c r="V269" s="5" t="s">
         <v>884</v>
       </c>
     </row>
@@ -21470,44 +21414,42 @@
       <c r="V274" s="2"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2" t="s">
+      <c r="C275" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M275" s="2" t="s">
+      <c r="K275" s="5"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N275" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-      <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
-      <c r="U275" s="2" t="s">
+      <c r="N275" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V275" s="2"/>
+      <c r="V275" s="5"/>
     </row>
     <row r="276" spans="1:22">
       <c r="A276" s="2" t="s">
@@ -21745,9 +21687,7 @@
         <v>715</v>
       </c>
       <c r="K280" s="2"/>
-      <c r="L280" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L280" s="7"/>
       <c r="M280" s="2" t="s">
         <v>80</v>
       </c>
@@ -21801,9 +21741,7 @@
         <v>715</v>
       </c>
       <c r="K281" s="2"/>
-      <c r="L281" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L281" s="7"/>
       <c r="M281" s="2" t="s">
         <v>80</v>
       </c>
@@ -21857,9 +21795,7 @@
         <v>715</v>
       </c>
       <c r="K282" s="2"/>
-      <c r="L282" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L282" s="7"/>
       <c r="M282" s="2" t="s">
         <v>80</v>
       </c>
@@ -22021,9 +21957,7 @@
         <v>765</v>
       </c>
       <c r="K285" s="2"/>
-      <c r="L285" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L285" s="7"/>
       <c r="M285" s="2" t="s">
         <v>81</v>
       </c>
@@ -22079,9 +22013,7 @@
       <c r="K286" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="L286" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L286" s="7"/>
       <c r="M286" s="2" t="s">
         <v>81</v>
       </c>
@@ -22110,44 +22042,42 @@
       </c>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="K287" s="5"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="N287" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V287" s="2"/>
+      <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="2" t="s">
@@ -22385,9 +22315,7 @@
         <v>715</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L292" s="7"/>
       <c r="M292" s="2" t="s">
         <v>82</v>
       </c>
@@ -22441,9 +22369,7 @@
         <v>715</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>82</v>
       </c>
@@ -22470,44 +22396,42 @@
       <c r="V293" s="2"/>
     </row>
     <row r="294" spans="1:22">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2" t="s">
+      <c r="C294" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M294" s="2" t="s">
+      <c r="K294" s="5"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N294" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2" t="s">
+      <c r="N294" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V294" s="2"/>
+      <c r="V294" s="5"/>
     </row>
     <row r="295" spans="1:22">
       <c r="A295" s="2" t="s">
@@ -22699,9 +22623,7 @@
         <v>715</v>
       </c>
       <c r="K298" s="2"/>
-      <c r="L298" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L298" s="7"/>
       <c r="M298" s="2" t="s">
         <v>83</v>
       </c>
@@ -22728,44 +22650,42 @@
       <c r="V298" s="2"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="5" t="s">
         <v>1493</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2" t="s">
+      <c r="C299" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K299" s="2"/>
-      <c r="L299" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M299" s="2" t="s">
+      <c r="K299" s="5"/>
+      <c r="L299" s="7"/>
+      <c r="M299" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N299" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2" t="s">
+      <c r="N299" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V299" s="2"/>
+      <c r="V299" s="5"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="2" t="s">
@@ -22899,9 +22819,7 @@
         <v>715</v>
       </c>
       <c r="K302" s="2"/>
-      <c r="L302" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L302" s="7"/>
       <c r="M302" s="2" t="s">
         <v>84</v>
       </c>
@@ -23063,9 +22981,7 @@
         <v>769</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L305" s="7"/>
       <c r="M305" s="2" t="s">
         <v>85</v>
       </c>
@@ -23092,46 +23008,44 @@
       <c r="V305" s="2"/>
     </row>
     <row r="306" spans="1:22">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2" t="s">
+      <c r="C306" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="K306" s="2" t="s">
+      <c r="K306" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="L306" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M306" s="2" t="s">
+      <c r="L306" s="7"/>
+      <c r="M306" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N306" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
-      <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
-      <c r="S306" s="2"/>
-      <c r="T306" s="2"/>
-      <c r="U306" s="2" t="s">
+      <c r="N306" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="5"/>
+      <c r="U306" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="V306" s="2" t="s">
+      <c r="V306" s="5" t="s">
         <v>888</v>
       </c>
     </row>
@@ -23371,9 +23285,7 @@
         <v>715</v>
       </c>
       <c r="K311" s="2"/>
-      <c r="L311" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L311" s="7"/>
       <c r="M311" s="2" t="s">
         <v>86</v>
       </c>
@@ -23535,9 +23447,7 @@
         <v>718</v>
       </c>
       <c r="K314" s="2"/>
-      <c r="L314" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L314" s="7"/>
       <c r="M314" s="2" t="s">
         <v>87</v>
       </c>
@@ -23591,9 +23501,7 @@
         <v>718</v>
       </c>
       <c r="K315" s="2"/>
-      <c r="L315" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L315" s="7"/>
       <c r="M315" s="2" t="s">
         <v>87</v>
       </c>
@@ -23647,9 +23555,7 @@
         <v>718</v>
       </c>
       <c r="K316" s="2"/>
-      <c r="L316" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L316" s="7"/>
       <c r="M316" s="2" t="s">
         <v>87</v>
       </c>
@@ -23676,44 +23582,42 @@
       <c r="V316" s="2"/>
     </row>
     <row r="317" spans="1:22">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2" t="s">
+      <c r="C317" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K317" s="2"/>
-      <c r="L317" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M317" s="2" t="s">
+      <c r="K317" s="5"/>
+      <c r="L317" s="7"/>
+      <c r="M317" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N317" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O317" s="2"/>
-      <c r="P317" s="2"/>
-      <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
-      <c r="S317" s="2"/>
-      <c r="T317" s="2"/>
-      <c r="U317" s="2" t="s">
+      <c r="N317" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V317" s="2"/>
+      <c r="V317" s="5"/>
     </row>
     <row r="318" spans="1:22">
       <c r="A318" s="2" t="s">
@@ -23847,9 +23751,7 @@
         <v>715</v>
       </c>
       <c r="K320" s="2"/>
-      <c r="L320" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L320" s="7"/>
       <c r="M320" s="2" t="s">
         <v>88</v>
       </c>
@@ -23876,44 +23778,42 @@
       <c r="V320" s="2"/>
     </row>
     <row r="321" spans="1:22">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="2" t="s">
+      <c r="C321" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K321" s="2"/>
-      <c r="L321" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M321" s="2" t="s">
+      <c r="K321" s="5"/>
+      <c r="L321" s="7"/>
+      <c r="M321" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N321" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
-      <c r="T321" s="2"/>
-      <c r="U321" s="2" t="s">
+      <c r="N321" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V321" s="2"/>
+      <c r="V321" s="5"/>
     </row>
     <row r="322" spans="1:22">
       <c r="A322" s="2" t="s">
@@ -24209,9 +24109,7 @@
         <v>715</v>
       </c>
       <c r="K327" s="2"/>
-      <c r="L327" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L327" s="7"/>
       <c r="M327" s="2" t="s">
         <v>90</v>
       </c>
@@ -24429,9 +24327,7 @@
       <c r="K331" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="L331" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L331" s="7"/>
       <c r="M331" s="2" t="s">
         <v>91</v>
       </c>
@@ -24649,9 +24545,7 @@
         <v>715</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L335" s="7"/>
       <c r="M335" s="2" t="s">
         <v>92</v>
       </c>
@@ -24867,9 +24761,7 @@
         <v>715</v>
       </c>
       <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L339" s="7"/>
       <c r="M339" s="2" t="s">
         <v>93</v>
       </c>
@@ -24896,44 +24788,42 @@
       <c r="V339" s="2"/>
     </row>
     <row r="340" spans="1:22">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="2" t="s">
+      <c r="C340" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M340" s="2" t="s">
+      <c r="K340" s="5"/>
+      <c r="L340" s="7"/>
+      <c r="M340" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N340" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-      <c r="Q340" s="2"/>
-      <c r="R340" s="2"/>
-      <c r="S340" s="2"/>
-      <c r="T340" s="2"/>
-      <c r="U340" s="2" t="s">
+      <c r="N340" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O340" s="5"/>
+      <c r="P340" s="5"/>
+      <c r="Q340" s="5"/>
+      <c r="R340" s="5"/>
+      <c r="S340" s="5"/>
+      <c r="T340" s="5"/>
+      <c r="U340" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V340" s="2"/>
+      <c r="V340" s="5"/>
     </row>
     <row r="341" spans="1:22">
       <c r="A341" s="2" t="s">
@@ -25098,46 +24988,44 @@
       <c r="V343" s="2"/>
     </row>
     <row r="344" spans="1:22">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="5" t="s">
         <v>1537</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2" t="s">
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="K344" s="2" t="s">
+      <c r="K344" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="L344" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M344" s="2" t="s">
+      <c r="L344" s="7"/>
+      <c r="M344" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N344" s="2" t="s">
+      <c r="N344" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2" t="s">
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="5"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="V344" s="2" t="s">
+      <c r="V344" s="5" t="s">
         <v>891</v>
       </c>
     </row>
@@ -25495,9 +25383,7 @@
       <c r="K351" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L351" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>96</v>
       </c>
@@ -25790,44 +25676,42 @@
       <c r="V356" s="2"/>
     </row>
     <row r="357" spans="1:22">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-      <c r="J357" s="2" t="s">
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K357" s="2"/>
-      <c r="L357" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M357" s="2" t="s">
+      <c r="K357" s="5"/>
+      <c r="L357" s="7"/>
+      <c r="M357" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N357" s="2" t="s">
+      <c r="N357" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O357" s="2"/>
-      <c r="P357" s="2"/>
-      <c r="Q357" s="2"/>
-      <c r="R357" s="2"/>
-      <c r="S357" s="2"/>
-      <c r="T357" s="2"/>
-      <c r="U357" s="2" t="s">
+      <c r="O357" s="5"/>
+      <c r="P357" s="5"/>
+      <c r="Q357" s="5"/>
+      <c r="R357" s="5"/>
+      <c r="S357" s="5"/>
+      <c r="T357" s="5"/>
+      <c r="U357" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V357" s="2"/>
+      <c r="V357" s="5"/>
     </row>
     <row r="358" spans="1:22">
       <c r="A358" s="2" t="s">
@@ -26050,44 +25934,42 @@
       <c r="V361" s="2"/>
     </row>
     <row r="362" spans="1:22">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2" t="s">
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K362" s="2"/>
-      <c r="L362" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M362" s="2" t="s">
+      <c r="K362" s="5"/>
+      <c r="L362" s="7"/>
+      <c r="M362" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N362" s="2" t="s">
+      <c r="N362" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
-      <c r="Q362" s="2"/>
-      <c r="R362" s="2"/>
-      <c r="S362" s="2"/>
-      <c r="T362" s="2"/>
-      <c r="U362" s="2" t="s">
+      <c r="O362" s="5"/>
+      <c r="P362" s="5"/>
+      <c r="Q362" s="5"/>
+      <c r="R362" s="5"/>
+      <c r="S362" s="5"/>
+      <c r="T362" s="5"/>
+      <c r="U362" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V362" s="2"/>
+      <c r="V362" s="5"/>
     </row>
     <row r="363" spans="1:22">
       <c r="A363" s="2" t="s">
@@ -26221,9 +26103,7 @@
         <v>715</v>
       </c>
       <c r="K365" s="2"/>
-      <c r="L365" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L365" s="7"/>
       <c r="M365" s="2" t="s">
         <v>99</v>
       </c>
@@ -26277,9 +26157,7 @@
         <v>715</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L366" s="7"/>
       <c r="M366" s="2" t="s">
         <v>99</v>
       </c>
@@ -26422,46 +26300,44 @@
       <c r="V368" s="2"/>
     </row>
     <row r="369" spans="1:22">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="5" t="s">
         <v>1562</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
-      <c r="I369" s="2"/>
-      <c r="J369" s="2" t="s">
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K369" s="2" t="s">
+      <c r="K369" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="L369" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M369" s="2" t="s">
+      <c r="L369" s="7"/>
+      <c r="M369" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N369" s="2" t="s">
+      <c r="N369" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
-      <c r="Q369" s="2"/>
-      <c r="R369" s="2"/>
-      <c r="S369" s="2"/>
-      <c r="T369" s="2"/>
-      <c r="U369" s="2" t="s">
+      <c r="O369" s="5"/>
+      <c r="P369" s="5"/>
+      <c r="Q369" s="5"/>
+      <c r="R369" s="5"/>
+      <c r="S369" s="5"/>
+      <c r="T369" s="5"/>
+      <c r="U369" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="V369" s="2" t="s">
+      <c r="V369" s="5" t="s">
         <v>898</v>
       </c>
     </row>
@@ -26624,46 +26500,44 @@
       <c r="V372" s="2"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="C373" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="K373" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N373" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="N373" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="V373" s="2" t="s">
+      <c r="V373" s="5" t="s">
         <v>898</v>
       </c>
     </row>
@@ -27208,44 +27082,42 @@
       <c r="V385" s="9"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2" t="s">
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K386" s="2"/>
-      <c r="L386" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M386" s="2" t="s">
+      <c r="K386" s="5"/>
+      <c r="L386" s="7"/>
+      <c r="M386" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N386" s="2" t="s">
+      <c r="N386" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
-      <c r="T386" s="2"/>
-      <c r="U386" s="2" t="s">
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V386" s="2"/>
+      <c r="V386" s="5"/>
     </row>
     <row r="387" spans="1:22">
       <c r="A387" s="2" t="s">
@@ -27734,46 +27606,44 @@
       <c r="V395" s="2"/>
     </row>
     <row r="396" spans="1:22">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="5" t="s">
         <v>1589</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
-      <c r="H396" s="2"/>
-      <c r="I396" s="2"/>
-      <c r="J396" s="2" t="s">
+      <c r="C396" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="K396" s="2" t="s">
+      <c r="K396" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="L396" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M396" s="2" t="s">
+      <c r="L396" s="7"/>
+      <c r="M396" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N396" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O396" s="2"/>
-      <c r="P396" s="2"/>
-      <c r="Q396" s="2"/>
-      <c r="R396" s="2"/>
-      <c r="S396" s="2"/>
-      <c r="T396" s="2"/>
-      <c r="U396" s="2" t="s">
+      <c r="N396" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O396" s="5"/>
+      <c r="P396" s="5"/>
+      <c r="Q396" s="5"/>
+      <c r="R396" s="5"/>
+      <c r="S396" s="5"/>
+      <c r="T396" s="5"/>
+      <c r="U396" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="V396" s="2" t="s">
+      <c r="V396" s="5" t="s">
         <v>901</v>
       </c>
     </row>
@@ -28013,9 +27883,7 @@
         <v>715</v>
       </c>
       <c r="K401" s="2"/>
-      <c r="L401" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L401" s="7"/>
       <c r="M401" s="2" t="s">
         <v>104</v>
       </c>
@@ -28069,9 +27937,7 @@
         <v>715</v>
       </c>
       <c r="K402" s="2"/>
-      <c r="L402" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L402" s="7"/>
       <c r="M402" s="2" t="s">
         <v>104</v>
       </c>
@@ -28125,9 +27991,7 @@
         <v>715</v>
       </c>
       <c r="K403" s="2"/>
-      <c r="L403" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L403" s="7"/>
       <c r="M403" s="2" t="s">
         <v>104</v>
       </c>
@@ -28154,46 +28018,44 @@
       <c r="V403" s="2"/>
     </row>
     <row r="404" spans="1:22">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="5" t="s">
         <v>1597</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-      <c r="J404" s="2" t="s">
+      <c r="C404" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="K404" s="2" t="s">
+      <c r="K404" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="L404" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M404" s="2" t="s">
+      <c r="L404" s="7"/>
+      <c r="M404" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N404" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O404" s="2"/>
-      <c r="P404" s="2"/>
-      <c r="Q404" s="2"/>
-      <c r="R404" s="2"/>
-      <c r="S404" s="2"/>
-      <c r="T404" s="2"/>
-      <c r="U404" s="2" t="s">
+      <c r="N404" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O404" s="5"/>
+      <c r="P404" s="5"/>
+      <c r="Q404" s="5"/>
+      <c r="R404" s="5"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="V404" s="2" t="s">
+      <c r="V404" s="5" t="s">
         <v>902</v>
       </c>
     </row>
@@ -28670,44 +28532,42 @@
       <c r="V415" s="9"/>
     </row>
     <row r="416" spans="1:22">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2" t="s">
+      <c r="C416" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K416" s="2"/>
-      <c r="L416" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M416" s="2" t="s">
+      <c r="K416" s="5"/>
+      <c r="L416" s="7"/>
+      <c r="M416" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N416" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
-      <c r="R416" s="2"/>
-      <c r="S416" s="2"/>
-      <c r="T416" s="2"/>
-      <c r="U416" s="2" t="s">
+      <c r="N416" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O416" s="5"/>
+      <c r="P416" s="5"/>
+      <c r="Q416" s="5"/>
+      <c r="R416" s="5"/>
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V416" s="2"/>
+      <c r="V416" s="5"/>
     </row>
     <row r="417" spans="1:22">
       <c r="A417" s="2" t="s">
@@ -28945,9 +28805,7 @@
         <v>788</v>
       </c>
       <c r="K421" s="2"/>
-      <c r="L421" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L421" s="7"/>
       <c r="M421" s="2" t="s">
         <v>64</v>
       </c>
@@ -29001,9 +28859,7 @@
         <v>789</v>
       </c>
       <c r="K422" s="2"/>
-      <c r="L422" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="2" t="s">
         <v>64</v>
       </c>
@@ -29057,9 +28913,7 @@
         <v>790</v>
       </c>
       <c r="K423" s="2"/>
-      <c r="L423" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L423" s="7"/>
       <c r="M423" s="2" t="s">
         <v>64</v>
       </c>
@@ -29113,9 +28967,7 @@
         <v>791</v>
       </c>
       <c r="K424" s="2"/>
-      <c r="L424" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L424" s="7"/>
       <c r="M424" s="2" t="s">
         <v>64</v>
       </c>
@@ -29142,46 +28994,44 @@
       <c r="V424" s="2"/>
     </row>
     <row r="425" spans="1:22">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2" t="s">
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="K425" s="2" t="s">
+      <c r="K425" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="L425" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M425" s="2" t="s">
+      <c r="L425" s="7"/>
+      <c r="M425" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N425" s="2" t="s">
+      <c r="N425" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
-      <c r="Q425" s="2"/>
-      <c r="R425" s="2"/>
-      <c r="S425" s="2"/>
-      <c r="T425" s="2"/>
-      <c r="U425" s="2" t="s">
+      <c r="O425" s="5"/>
+      <c r="P425" s="5"/>
+      <c r="Q425" s="5"/>
+      <c r="R425" s="5"/>
+      <c r="S425" s="5"/>
+      <c r="T425" s="5"/>
+      <c r="U425" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="V425" s="2" t="s">
+      <c r="V425" s="5" t="s">
         <v>885</v>
       </c>
     </row>
@@ -29668,44 +29518,42 @@
       <c r="V434" s="2"/>
     </row>
     <row r="435" spans="1:22">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="5" t="s">
         <v>1628</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2" t="s">
+      <c r="C435" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K435" s="2"/>
-      <c r="L435" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M435" s="2" t="s">
+      <c r="K435" s="5"/>
+      <c r="L435" s="7"/>
+      <c r="M435" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N435" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O435" s="2"/>
-      <c r="P435" s="2"/>
-      <c r="Q435" s="2"/>
-      <c r="R435" s="2"/>
-      <c r="S435" s="2"/>
-      <c r="T435" s="2"/>
-      <c r="U435" s="2" t="s">
+      <c r="N435" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O435" s="5"/>
+      <c r="P435" s="5"/>
+      <c r="Q435" s="5"/>
+      <c r="R435" s="5"/>
+      <c r="S435" s="5"/>
+      <c r="T435" s="5"/>
+      <c r="U435" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V435" s="2"/>
+      <c r="V435" s="5"/>
     </row>
     <row r="436" spans="1:22">
       <c r="A436" s="2" t="s">
@@ -35840,44 +35688,42 @@
       <c r="V583" s="9"/>
     </row>
     <row r="584" spans="1:22">
-      <c r="A584" s="2" t="s">
+      <c r="A584" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C584" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D584" s="2"/>
-      <c r="E584" s="2"/>
-      <c r="F584" s="2"/>
-      <c r="G584" s="2"/>
-      <c r="H584" s="2"/>
-      <c r="I584" s="2"/>
-      <c r="J584" s="2" t="s">
+      <c r="C584" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D584" s="5"/>
+      <c r="E584" s="5"/>
+      <c r="F584" s="5"/>
+      <c r="G584" s="5"/>
+      <c r="H584" s="5"/>
+      <c r="I584" s="5"/>
+      <c r="J584" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K584" s="2"/>
-      <c r="L584" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M584" s="2" t="s">
+      <c r="K584" s="5"/>
+      <c r="L584" s="7"/>
+      <c r="M584" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N584" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O584" s="2"/>
-      <c r="P584" s="2"/>
-      <c r="Q584" s="2"/>
-      <c r="R584" s="2"/>
-      <c r="S584" s="2"/>
-      <c r="T584" s="2"/>
-      <c r="U584" s="2" t="s">
+      <c r="N584" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O584" s="5"/>
+      <c r="P584" s="5"/>
+      <c r="Q584" s="5"/>
+      <c r="R584" s="5"/>
+      <c r="S584" s="5"/>
+      <c r="T584" s="5"/>
+      <c r="U584" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V584" s="2"/>
+      <c r="V584" s="5"/>
     </row>
     <row r="585" spans="1:22">
       <c r="A585" s="2" t="s">
@@ -40788,44 +40634,42 @@
       <c r="V706" s="9"/>
     </row>
     <row r="707" spans="1:22">
-      <c r="A707" s="2" t="s">
+      <c r="A707" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B707" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C707" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D707" s="2"/>
-      <c r="E707" s="2"/>
-      <c r="F707" s="2"/>
-      <c r="G707" s="2"/>
-      <c r="H707" s="2"/>
-      <c r="I707" s="2"/>
-      <c r="J707" s="2" t="s">
+      <c r="C707" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D707" s="5"/>
+      <c r="E707" s="5"/>
+      <c r="F707" s="5"/>
+      <c r="G707" s="5"/>
+      <c r="H707" s="5"/>
+      <c r="I707" s="5"/>
+      <c r="J707" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K707" s="2"/>
-      <c r="L707" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M707" s="2" t="s">
+      <c r="K707" s="5"/>
+      <c r="L707" s="7"/>
+      <c r="M707" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N707" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O707" s="2"/>
-      <c r="P707" s="2"/>
-      <c r="Q707" s="2"/>
-      <c r="R707" s="2"/>
-      <c r="S707" s="2"/>
-      <c r="T707" s="2"/>
-      <c r="U707" s="2" t="s">
+      <c r="N707" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O707" s="5"/>
+      <c r="P707" s="5"/>
+      <c r="Q707" s="5"/>
+      <c r="R707" s="5"/>
+      <c r="S707" s="5"/>
+      <c r="T707" s="5"/>
+      <c r="U707" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V707" s="2"/>
+      <c r="V707" s="5"/>
     </row>
     <row r="708" spans="1:22">
       <c r="A708" s="2" t="s">
@@ -42962,44 +42806,42 @@
       <c r="V757" s="2"/>
     </row>
     <row r="758" spans="1:22">
-      <c r="A758" s="2" t="s">
+      <c r="A758" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="B758" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C758" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D758" s="2"/>
-      <c r="E758" s="2"/>
-      <c r="F758" s="2"/>
-      <c r="G758" s="2"/>
-      <c r="H758" s="2"/>
-      <c r="I758" s="2"/>
-      <c r="J758" s="2" t="s">
+      <c r="C758" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D758" s="5"/>
+      <c r="E758" s="5"/>
+      <c r="F758" s="5"/>
+      <c r="G758" s="5"/>
+      <c r="H758" s="5"/>
+      <c r="I758" s="5"/>
+      <c r="J758" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K758" s="2"/>
-      <c r="L758" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M758" s="2" t="s">
+      <c r="K758" s="5"/>
+      <c r="L758" s="7"/>
+      <c r="M758" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N758" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O758" s="2"/>
-      <c r="P758" s="2"/>
-      <c r="Q758" s="2"/>
-      <c r="R758" s="2"/>
-      <c r="S758" s="2"/>
-      <c r="T758" s="2"/>
-      <c r="U758" s="2" t="s">
+      <c r="N758" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O758" s="5"/>
+      <c r="P758" s="5"/>
+      <c r="Q758" s="5"/>
+      <c r="R758" s="5"/>
+      <c r="S758" s="5"/>
+      <c r="T758" s="5"/>
+      <c r="U758" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V758" s="2"/>
+      <c r="V758" s="5"/>
     </row>
     <row r="759" spans="1:22">
       <c r="A759" s="2" t="s">
@@ -43237,9 +43079,7 @@
         <v>715</v>
       </c>
       <c r="K763" s="2"/>
-      <c r="L763" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L763" s="7"/>
       <c r="M763" s="2" t="s">
         <v>140</v>
       </c>
@@ -43293,9 +43133,7 @@
         <v>715</v>
       </c>
       <c r="K764" s="2"/>
-      <c r="L764" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L764" s="7"/>
       <c r="M764" s="2" t="s">
         <v>140</v>
       </c>
@@ -43349,9 +43187,7 @@
         <v>715</v>
       </c>
       <c r="K765" s="2"/>
-      <c r="L765" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L765" s="7"/>
       <c r="M765" s="2" t="s">
         <v>140</v>
       </c>
@@ -43378,46 +43214,44 @@
       <c r="V765" s="2"/>
     </row>
     <row r="766" spans="1:22">
-      <c r="A766" s="2" t="s">
+      <c r="A766" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="B766" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C766" s="2" t="s">
+      <c r="C766" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D766" s="2"/>
-      <c r="E766" s="2"/>
-      <c r="F766" s="2"/>
-      <c r="G766" s="2"/>
-      <c r="H766" s="2"/>
-      <c r="I766" s="2"/>
-      <c r="J766" s="2" t="s">
+      <c r="D766" s="5"/>
+      <c r="E766" s="5"/>
+      <c r="F766" s="5"/>
+      <c r="G766" s="5"/>
+      <c r="H766" s="5"/>
+      <c r="I766" s="5"/>
+      <c r="J766" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="K766" s="2" t="s">
+      <c r="K766" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="L766" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M766" s="2" t="s">
+      <c r="L766" s="7"/>
+      <c r="M766" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N766" s="2" t="s">
+      <c r="N766" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O766" s="2"/>
-      <c r="P766" s="2"/>
-      <c r="Q766" s="2"/>
-      <c r="R766" s="2"/>
-      <c r="S766" s="2"/>
-      <c r="T766" s="2"/>
-      <c r="U766" s="2" t="s">
+      <c r="O766" s="5"/>
+      <c r="P766" s="5"/>
+      <c r="Q766" s="5"/>
+      <c r="R766" s="5"/>
+      <c r="S766" s="5"/>
+      <c r="T766" s="5"/>
+      <c r="U766" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="V766" s="2" t="s">
+      <c r="V766" s="5" t="s">
         <v>922</v>
       </c>
     </row>
@@ -43850,44 +43684,42 @@
       <c r="V774" s="2"/>
     </row>
     <row r="775" spans="1:22">
-      <c r="A775" s="2" t="s">
+      <c r="A775" s="5" t="s">
         <v>1966</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="B775" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C775" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D775" s="2"/>
-      <c r="E775" s="2"/>
-      <c r="F775" s="2"/>
-      <c r="G775" s="2"/>
-      <c r="H775" s="2"/>
-      <c r="I775" s="2"/>
-      <c r="J775" s="2" t="s">
+      <c r="C775" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D775" s="5"/>
+      <c r="E775" s="5"/>
+      <c r="F775" s="5"/>
+      <c r="G775" s="5"/>
+      <c r="H775" s="5"/>
+      <c r="I775" s="5"/>
+      <c r="J775" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K775" s="2"/>
-      <c r="L775" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M775" s="2" t="s">
+      <c r="K775" s="5"/>
+      <c r="L775" s="7"/>
+      <c r="M775" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N775" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O775" s="2"/>
-      <c r="P775" s="2"/>
-      <c r="Q775" s="2"/>
-      <c r="R775" s="2"/>
-      <c r="S775" s="2"/>
-      <c r="T775" s="2"/>
-      <c r="U775" s="2" t="s">
+      <c r="N775" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O775" s="5"/>
+      <c r="P775" s="5"/>
+      <c r="Q775" s="5"/>
+      <c r="R775" s="5"/>
+      <c r="S775" s="5"/>
+      <c r="T775" s="5"/>
+      <c r="U775" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V775" s="2"/>
+      <c r="V775" s="5"/>
     </row>
     <row r="776" spans="1:22">
       <c r="A776" s="2" t="s">
@@ -44125,9 +43957,7 @@
         <v>715</v>
       </c>
       <c r="K780" s="2"/>
-      <c r="L780" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L780" s="7"/>
       <c r="M780" s="2" t="s">
         <v>144</v>
       </c>
@@ -44181,9 +44011,7 @@
         <v>715</v>
       </c>
       <c r="K781" s="2"/>
-      <c r="L781" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L781" s="7"/>
       <c r="M781" s="2" t="s">
         <v>144</v>
       </c>
@@ -44237,9 +44065,7 @@
         <v>715</v>
       </c>
       <c r="K782" s="2"/>
-      <c r="L782" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L782" s="7"/>
       <c r="M782" s="2" t="s">
         <v>144</v>
       </c>
@@ -44293,9 +44119,7 @@
         <v>715</v>
       </c>
       <c r="K783" s="2"/>
-      <c r="L783" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L783" s="7"/>
       <c r="M783" s="2" t="s">
         <v>144</v>
       </c>
@@ -44349,9 +44173,7 @@
         <v>715</v>
       </c>
       <c r="K784" s="2"/>
-      <c r="L784" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L784" s="7"/>
       <c r="M784" s="2" t="s">
         <v>144</v>
       </c>
@@ -44405,9 +44227,7 @@
         <v>715</v>
       </c>
       <c r="K785" s="2"/>
-      <c r="L785" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L785" s="7"/>
       <c r="M785" s="2" t="s">
         <v>144</v>
       </c>
@@ -44519,9 +44339,7 @@
         <v>812</v>
       </c>
       <c r="K787" s="2"/>
-      <c r="L787" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L787" s="7"/>
       <c r="M787" s="2" t="s">
         <v>144</v>
       </c>
@@ -44575,9 +44393,7 @@
         <v>812</v>
       </c>
       <c r="K788" s="2"/>
-      <c r="L788" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L788" s="7"/>
       <c r="M788" s="2" t="s">
         <v>144</v>
       </c>
@@ -44631,9 +44447,7 @@
         <v>813</v>
       </c>
       <c r="K789" s="2"/>
-      <c r="L789" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L789" s="7"/>
       <c r="M789" s="2" t="s">
         <v>144</v>
       </c>
@@ -44689,9 +44503,7 @@
       <c r="K790" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="L790" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L790" s="7"/>
       <c r="M790" s="2" t="s">
         <v>144</v>
       </c>
@@ -45013,9 +44825,7 @@
         <v>715</v>
       </c>
       <c r="K796" s="2"/>
-      <c r="L796" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L796" s="7"/>
       <c r="M796" s="2" t="s">
         <v>146</v>
       </c>
@@ -45069,9 +44879,7 @@
         <v>715</v>
       </c>
       <c r="K797" s="2"/>
-      <c r="L797" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L797" s="7"/>
       <c r="M797" s="2" t="s">
         <v>146</v>
       </c>
@@ -45229,9 +45037,7 @@
         <v>715</v>
       </c>
       <c r="K800" s="2"/>
-      <c r="L800" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L800" s="7"/>
       <c r="M800" s="2" t="s">
         <v>147</v>
       </c>
@@ -45447,9 +45253,7 @@
         <v>715</v>
       </c>
       <c r="K804" s="2"/>
-      <c r="L804" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L804" s="7"/>
       <c r="M804" s="2" t="s">
         <v>148</v>
       </c>
@@ -45476,46 +45280,44 @@
       <c r="V804" s="2"/>
     </row>
     <row r="805" spans="1:22">
-      <c r="A805" s="2" t="s">
+      <c r="A805" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="B805" s="2" t="s">
+      <c r="B805" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C805" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D805" s="2"/>
-      <c r="E805" s="2"/>
-      <c r="F805" s="2"/>
-      <c r="G805" s="2"/>
-      <c r="H805" s="2"/>
-      <c r="I805" s="2"/>
-      <c r="J805" s="2" t="s">
+      <c r="C805" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D805" s="5"/>
+      <c r="E805" s="5"/>
+      <c r="F805" s="5"/>
+      <c r="G805" s="5"/>
+      <c r="H805" s="5"/>
+      <c r="I805" s="5"/>
+      <c r="J805" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="K805" s="2" t="s">
+      <c r="K805" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="L805" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M805" s="2" t="s">
+      <c r="L805" s="7"/>
+      <c r="M805" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N805" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O805" s="2"/>
-      <c r="P805" s="2"/>
-      <c r="Q805" s="2"/>
-      <c r="R805" s="2"/>
-      <c r="S805" s="2"/>
-      <c r="T805" s="2"/>
-      <c r="U805" s="2" t="s">
+      <c r="N805" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O805" s="5"/>
+      <c r="P805" s="5"/>
+      <c r="Q805" s="5"/>
+      <c r="R805" s="5"/>
+      <c r="S805" s="5"/>
+      <c r="T805" s="5"/>
+      <c r="U805" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="V805" s="2" t="s">
+      <c r="V805" s="5" t="s">
         <v>926</v>
       </c>
     </row>
@@ -45755,9 +45557,7 @@
         <v>715</v>
       </c>
       <c r="K810" s="2"/>
-      <c r="L810" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L810" s="7"/>
       <c r="M810" s="2" t="s">
         <v>149</v>
       </c>
@@ -45784,46 +45584,44 @@
       <c r="V810" s="2"/>
     </row>
     <row r="811" spans="1:22">
-      <c r="A811" s="2" t="s">
+      <c r="A811" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="B811" s="2" t="s">
+      <c r="B811" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C811" s="2" t="s">
+      <c r="C811" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D811" s="2"/>
-      <c r="E811" s="2"/>
-      <c r="F811" s="2"/>
-      <c r="G811" s="2"/>
-      <c r="H811" s="2"/>
-      <c r="I811" s="2"/>
-      <c r="J811" s="2" t="s">
+      <c r="D811" s="5"/>
+      <c r="E811" s="5"/>
+      <c r="F811" s="5"/>
+      <c r="G811" s="5"/>
+      <c r="H811" s="5"/>
+      <c r="I811" s="5"/>
+      <c r="J811" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="K811" s="2" t="s">
+      <c r="K811" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="L811" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M811" s="2" t="s">
+      <c r="L811" s="7"/>
+      <c r="M811" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N811" s="2" t="s">
+      <c r="N811" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O811" s="2"/>
-      <c r="P811" s="2"/>
-      <c r="Q811" s="2"/>
-      <c r="R811" s="2"/>
-      <c r="S811" s="2"/>
-      <c r="T811" s="2"/>
-      <c r="U811" s="2" t="s">
+      <c r="O811" s="5"/>
+      <c r="P811" s="5"/>
+      <c r="Q811" s="5"/>
+      <c r="R811" s="5"/>
+      <c r="S811" s="5"/>
+      <c r="T811" s="5"/>
+      <c r="U811" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="V811" s="2" t="s">
+      <c r="V811" s="5" t="s">
         <v>927</v>
       </c>
     </row>
@@ -46069,9 +45867,7 @@
       <c r="K816" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L816" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L816" s="7"/>
       <c r="M816" s="2" t="s">
         <v>151</v>
       </c>
@@ -46698,46 +46494,44 @@
       <c r="V827" s="2"/>
     </row>
     <row r="828" spans="1:22">
-      <c r="A828" s="2" t="s">
+      <c r="A828" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="B828" s="2" t="s">
+      <c r="B828" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C828" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D828" s="2"/>
-      <c r="E828" s="2"/>
-      <c r="F828" s="2"/>
-      <c r="G828" s="2"/>
-      <c r="H828" s="2"/>
-      <c r="I828" s="2"/>
-      <c r="J828" s="2" t="s">
+      <c r="C828" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D828" s="5"/>
+      <c r="E828" s="5"/>
+      <c r="F828" s="5"/>
+      <c r="G828" s="5"/>
+      <c r="H828" s="5"/>
+      <c r="I828" s="5"/>
+      <c r="J828" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="K828" s="2" t="s">
+      <c r="K828" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="L828" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M828" s="2" t="s">
+      <c r="L828" s="7"/>
+      <c r="M828" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N828" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O828" s="2"/>
-      <c r="P828" s="2"/>
-      <c r="Q828" s="2"/>
-      <c r="R828" s="2"/>
-      <c r="S828" s="2"/>
-      <c r="T828" s="2"/>
-      <c r="U828" s="2" t="s">
+      <c r="N828" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O828" s="5"/>
+      <c r="P828" s="5"/>
+      <c r="Q828" s="5"/>
+      <c r="R828" s="5"/>
+      <c r="S828" s="5"/>
+      <c r="T828" s="5"/>
+      <c r="U828" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="V828" s="2" t="s">
+      <c r="V828" s="5" t="s">
         <v>932</v>
       </c>
     </row>
@@ -46977,9 +46771,7 @@
         <v>715</v>
       </c>
       <c r="K833" s="2"/>
-      <c r="L833" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L833" s="7"/>
       <c r="M833" s="2" t="s">
         <v>104</v>
       </c>
@@ -47033,9 +46825,7 @@
         <v>715</v>
       </c>
       <c r="K834" s="2"/>
-      <c r="L834" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L834" s="7"/>
       <c r="M834" s="2" t="s">
         <v>104</v>
       </c>
@@ -47089,9 +46879,7 @@
         <v>715</v>
       </c>
       <c r="K835" s="2"/>
-      <c r="L835" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L835" s="7"/>
       <c r="M835" s="2" t="s">
         <v>104</v>
       </c>
@@ -47320,46 +47108,44 @@
       <c r="V839" s="2"/>
     </row>
     <row r="840" spans="1:22">
-      <c r="A840" s="2" t="s">
+      <c r="A840" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="B840" s="2" t="s">
+      <c r="B840" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C840" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D840" s="2"/>
-      <c r="E840" s="2"/>
-      <c r="F840" s="2"/>
-      <c r="G840" s="2"/>
-      <c r="H840" s="2"/>
-      <c r="I840" s="2"/>
-      <c r="J840" s="2" t="s">
+      <c r="C840" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D840" s="5"/>
+      <c r="E840" s="5"/>
+      <c r="F840" s="5"/>
+      <c r="G840" s="5"/>
+      <c r="H840" s="5"/>
+      <c r="I840" s="5"/>
+      <c r="J840" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="K840" s="2" t="s">
+      <c r="K840" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="L840" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M840" s="2" t="s">
+      <c r="L840" s="7"/>
+      <c r="M840" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N840" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O840" s="2"/>
-      <c r="P840" s="2"/>
-      <c r="Q840" s="2"/>
-      <c r="R840" s="2"/>
-      <c r="S840" s="2"/>
-      <c r="T840" s="2"/>
-      <c r="U840" s="2" t="s">
+      <c r="N840" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O840" s="5"/>
+      <c r="P840" s="5"/>
+      <c r="Q840" s="5"/>
+      <c r="R840" s="5"/>
+      <c r="S840" s="5"/>
+      <c r="T840" s="5"/>
+      <c r="U840" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="V840" s="2" t="s">
+      <c r="V840" s="5" t="s">
         <v>903</v>
       </c>
     </row>
@@ -47522,46 +47308,44 @@
       <c r="V843" s="2"/>
     </row>
     <row r="844" spans="1:22">
-      <c r="A844" s="2" t="s">
+      <c r="A844" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="B844" s="2" t="s">
+      <c r="B844" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C844" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D844" s="2"/>
-      <c r="E844" s="2"/>
-      <c r="F844" s="2"/>
-      <c r="G844" s="2"/>
-      <c r="H844" s="2"/>
-      <c r="I844" s="2"/>
-      <c r="J844" s="2" t="s">
+      <c r="C844" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D844" s="5"/>
+      <c r="E844" s="5"/>
+      <c r="F844" s="5"/>
+      <c r="G844" s="5"/>
+      <c r="H844" s="5"/>
+      <c r="I844" s="5"/>
+      <c r="J844" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="K844" s="2" t="s">
+      <c r="K844" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="L844" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M844" s="2" t="s">
+      <c r="L844" s="7"/>
+      <c r="M844" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N844" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O844" s="2"/>
-      <c r="P844" s="2"/>
-      <c r="Q844" s="2"/>
-      <c r="R844" s="2"/>
-      <c r="S844" s="2"/>
-      <c r="T844" s="2"/>
-      <c r="U844" s="2" t="s">
+      <c r="N844" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O844" s="5"/>
+      <c r="P844" s="5"/>
+      <c r="Q844" s="5"/>
+      <c r="R844" s="5"/>
+      <c r="S844" s="5"/>
+      <c r="T844" s="5"/>
+      <c r="U844" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="V844" s="2" t="s">
+      <c r="V844" s="5" t="s">
         <v>934</v>
       </c>
     </row>
@@ -47882,46 +47666,44 @@
       <c r="V850" s="2"/>
     </row>
     <row r="851" spans="1:22">
-      <c r="A851" s="2" t="s">
+      <c r="A851" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="B851" s="2" t="s">
+      <c r="B851" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C851" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D851" s="2"/>
-      <c r="E851" s="2"/>
-      <c r="F851" s="2"/>
-      <c r="G851" s="2"/>
-      <c r="H851" s="2"/>
-      <c r="I851" s="2"/>
-      <c r="J851" s="2" t="s">
+      <c r="C851" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D851" s="5"/>
+      <c r="E851" s="5"/>
+      <c r="F851" s="5"/>
+      <c r="G851" s="5"/>
+      <c r="H851" s="5"/>
+      <c r="I851" s="5"/>
+      <c r="J851" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="K851" s="2" t="s">
+      <c r="K851" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="L851" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M851" s="2" t="s">
+      <c r="L851" s="7"/>
+      <c r="M851" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N851" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O851" s="2"/>
-      <c r="P851" s="2"/>
-      <c r="Q851" s="2"/>
-      <c r="R851" s="2"/>
-      <c r="S851" s="2"/>
-      <c r="T851" s="2"/>
-      <c r="U851" s="2" t="s">
+      <c r="N851" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O851" s="5"/>
+      <c r="P851" s="5"/>
+      <c r="Q851" s="5"/>
+      <c r="R851" s="5"/>
+      <c r="S851" s="5"/>
+      <c r="T851" s="5"/>
+      <c r="U851" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="V851" s="2" t="s">
+      <c r="V851" s="5" t="s">
         <v>935</v>
       </c>
     </row>
@@ -48084,46 +47866,44 @@
       <c r="V854" s="2"/>
     </row>
     <row r="855" spans="1:22">
-      <c r="A855" s="2" t="s">
+      <c r="A855" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="B855" s="2" t="s">
+      <c r="B855" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C855" s="2" t="s">
+      <c r="C855" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D855" s="2"/>
-      <c r="E855" s="2"/>
-      <c r="F855" s="2"/>
-      <c r="G855" s="2"/>
-      <c r="H855" s="2"/>
-      <c r="I855" s="2"/>
-      <c r="J855" s="2" t="s">
+      <c r="D855" s="5"/>
+      <c r="E855" s="5"/>
+      <c r="F855" s="5"/>
+      <c r="G855" s="5"/>
+      <c r="H855" s="5"/>
+      <c r="I855" s="5"/>
+      <c r="J855" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="K855" s="2" t="s">
+      <c r="K855" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="L855" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M855" s="2" t="s">
+      <c r="L855" s="7"/>
+      <c r="M855" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N855" s="2" t="s">
+      <c r="N855" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O855" s="2"/>
-      <c r="P855" s="2"/>
-      <c r="Q855" s="2"/>
-      <c r="R855" s="2"/>
-      <c r="S855" s="2"/>
-      <c r="T855" s="2"/>
-      <c r="U855" s="2" t="s">
+      <c r="O855" s="5"/>
+      <c r="P855" s="5"/>
+      <c r="Q855" s="5"/>
+      <c r="R855" s="5"/>
+      <c r="S855" s="5"/>
+      <c r="T855" s="5"/>
+      <c r="U855" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="V855" s="2" t="s">
+      <c r="V855" s="5" t="s">
         <v>936</v>
       </c>
     </row>
@@ -48390,44 +48170,42 @@
       <c r="V860" s="2"/>
     </row>
     <row r="861" spans="1:22">
-      <c r="A861" s="2" t="s">
+      <c r="A861" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="B861" s="2" t="s">
+      <c r="B861" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C861" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D861" s="2"/>
-      <c r="E861" s="2"/>
-      <c r="F861" s="2"/>
-      <c r="G861" s="2"/>
-      <c r="H861" s="2"/>
-      <c r="I861" s="2"/>
-      <c r="J861" s="2" t="s">
+      <c r="C861" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D861" s="5"/>
+      <c r="E861" s="5"/>
+      <c r="F861" s="5"/>
+      <c r="G861" s="5"/>
+      <c r="H861" s="5"/>
+      <c r="I861" s="5"/>
+      <c r="J861" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K861" s="2"/>
-      <c r="L861" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M861" s="2" t="s">
+      <c r="K861" s="5"/>
+      <c r="L861" s="7"/>
+      <c r="M861" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N861" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O861" s="2"/>
-      <c r="P861" s="2"/>
-      <c r="Q861" s="2"/>
-      <c r="R861" s="2"/>
-      <c r="S861" s="2"/>
-      <c r="T861" s="2"/>
-      <c r="U861" s="2" t="s">
+      <c r="N861" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O861" s="5"/>
+      <c r="P861" s="5"/>
+      <c r="Q861" s="5"/>
+      <c r="R861" s="5"/>
+      <c r="S861" s="5"/>
+      <c r="T861" s="5"/>
+      <c r="U861" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V861" s="2"/>
+      <c r="V861" s="5"/>
     </row>
     <row r="862" spans="1:22">
       <c r="A862" s="2" t="s">
@@ -48827,9 +48605,7 @@
         <v>715</v>
       </c>
       <c r="K869" s="2"/>
-      <c r="L869" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L869" s="7"/>
       <c r="M869" s="2" t="s">
         <v>159</v>
       </c>
@@ -48883,9 +48659,7 @@
         <v>715</v>
       </c>
       <c r="K870" s="2"/>
-      <c r="L870" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L870" s="7"/>
       <c r="M870" s="2" t="s">
         <v>159</v>
       </c>
@@ -48939,9 +48713,7 @@
         <v>715</v>
       </c>
       <c r="K871" s="2"/>
-      <c r="L871" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L871" s="7"/>
       <c r="M871" s="2" t="s">
         <v>159</v>
       </c>
@@ -49026,46 +48798,44 @@
       </c>
     </row>
     <row r="873" spans="1:22">
-      <c r="A873" s="2" t="s">
+      <c r="A873" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="B873" s="2" t="s">
+      <c r="B873" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C873" s="2" t="s">
+      <c r="C873" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D873" s="2"/>
-      <c r="E873" s="2"/>
-      <c r="F873" s="2"/>
-      <c r="G873" s="2"/>
-      <c r="H873" s="2"/>
-      <c r="I873" s="2"/>
-      <c r="J873" s="2" t="s">
+      <c r="D873" s="5"/>
+      <c r="E873" s="5"/>
+      <c r="F873" s="5"/>
+      <c r="G873" s="5"/>
+      <c r="H873" s="5"/>
+      <c r="I873" s="5"/>
+      <c r="J873" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="K873" s="2" t="s">
+      <c r="K873" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="L873" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M873" s="2" t="s">
+      <c r="L873" s="7"/>
+      <c r="M873" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N873" s="2" t="s">
+      <c r="N873" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O873" s="2"/>
-      <c r="P873" s="2"/>
-      <c r="Q873" s="2"/>
-      <c r="R873" s="2"/>
-      <c r="S873" s="2"/>
-      <c r="T873" s="2"/>
-      <c r="U873" s="2" t="s">
+      <c r="O873" s="5"/>
+      <c r="P873" s="5"/>
+      <c r="Q873" s="5"/>
+      <c r="R873" s="5"/>
+      <c r="S873" s="5"/>
+      <c r="T873" s="5"/>
+      <c r="U873" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="V873" s="2" t="s">
+      <c r="V873" s="5" t="s">
         <v>939</v>
       </c>
     </row>
@@ -49332,44 +49102,42 @@
       <c r="V878" s="2"/>
     </row>
     <row r="879" spans="1:22">
-      <c r="A879" s="2" t="s">
+      <c r="A879" s="5" t="s">
         <v>2069</v>
       </c>
-      <c r="B879" s="2" t="s">
+      <c r="B879" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C879" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D879" s="2"/>
-      <c r="E879" s="2"/>
-      <c r="F879" s="2"/>
-      <c r="G879" s="2"/>
-      <c r="H879" s="2"/>
-      <c r="I879" s="2"/>
-      <c r="J879" s="2" t="s">
+      <c r="C879" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D879" s="5"/>
+      <c r="E879" s="5"/>
+      <c r="F879" s="5"/>
+      <c r="G879" s="5"/>
+      <c r="H879" s="5"/>
+      <c r="I879" s="5"/>
+      <c r="J879" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K879" s="2"/>
-      <c r="L879" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M879" s="2" t="s">
+      <c r="K879" s="5"/>
+      <c r="L879" s="7"/>
+      <c r="M879" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N879" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O879" s="2"/>
-      <c r="P879" s="2"/>
-      <c r="Q879" s="2"/>
-      <c r="R879" s="2"/>
-      <c r="S879" s="2"/>
-      <c r="T879" s="2"/>
-      <c r="U879" s="2" t="s">
+      <c r="N879" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O879" s="5"/>
+      <c r="P879" s="5"/>
+      <c r="Q879" s="5"/>
+      <c r="R879" s="5"/>
+      <c r="S879" s="5"/>
+      <c r="T879" s="5"/>
+      <c r="U879" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V879" s="2"/>
+      <c r="V879" s="5"/>
     </row>
     <row r="880" spans="1:22">
       <c r="A880" s="2" t="s">
@@ -49765,9 +49533,7 @@
         <v>715</v>
       </c>
       <c r="K887" s="2"/>
-      <c r="L887" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L887" s="7"/>
       <c r="M887" s="2" t="s">
         <v>162</v>
       </c>
@@ -49821,9 +49587,7 @@
         <v>715</v>
       </c>
       <c r="K888" s="2"/>
-      <c r="L888" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L888" s="7"/>
       <c r="M888" s="2" t="s">
         <v>162</v>
       </c>
@@ -49877,9 +49641,7 @@
         <v>715</v>
       </c>
       <c r="K889" s="2"/>
-      <c r="L889" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L889" s="7"/>
       <c r="M889" s="2" t="s">
         <v>162</v>
       </c>
@@ -49933,9 +49695,7 @@
         <v>715</v>
       </c>
       <c r="K890" s="2"/>
-      <c r="L890" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L890" s="7"/>
       <c r="M890" s="2" t="s">
         <v>162</v>
       </c>
@@ -49989,9 +49749,7 @@
         <v>715</v>
       </c>
       <c r="K891" s="2"/>
-      <c r="L891" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L891" s="7"/>
       <c r="M891" s="2" t="s">
         <v>162</v>
       </c>
@@ -50018,46 +49776,44 @@
       <c r="V891" s="2"/>
     </row>
     <row r="892" spans="1:22">
-      <c r="A892" s="2" t="s">
+      <c r="A892" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="B892" s="2" t="s">
+      <c r="B892" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C892" s="2" t="s">
+      <c r="C892" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D892" s="2"/>
-      <c r="E892" s="2"/>
-      <c r="F892" s="2"/>
-      <c r="G892" s="2"/>
-      <c r="H892" s="2"/>
-      <c r="I892" s="2"/>
-      <c r="J892" s="2" t="s">
+      <c r="D892" s="5"/>
+      <c r="E892" s="5"/>
+      <c r="F892" s="5"/>
+      <c r="G892" s="5"/>
+      <c r="H892" s="5"/>
+      <c r="I892" s="5"/>
+      <c r="J892" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="K892" s="2" t="s">
+      <c r="K892" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="L892" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M892" s="2" t="s">
+      <c r="L892" s="7"/>
+      <c r="M892" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N892" s="2" t="s">
+      <c r="N892" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O892" s="2"/>
-      <c r="P892" s="2"/>
-      <c r="Q892" s="2"/>
-      <c r="R892" s="2"/>
-      <c r="S892" s="2"/>
-      <c r="T892" s="2"/>
-      <c r="U892" s="2" t="s">
+      <c r="O892" s="5"/>
+      <c r="P892" s="5"/>
+      <c r="Q892" s="5"/>
+      <c r="R892" s="5"/>
+      <c r="S892" s="5"/>
+      <c r="T892" s="5"/>
+      <c r="U892" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="V892" s="2" t="s">
+      <c r="V892" s="5" t="s">
         <v>936</v>
       </c>
     </row>
@@ -50324,44 +50080,42 @@
       <c r="V897" s="2"/>
     </row>
     <row r="898" spans="1:22">
-      <c r="A898" s="2" t="s">
+      <c r="A898" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="B898" s="2" t="s">
+      <c r="B898" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C898" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D898" s="2"/>
-      <c r="E898" s="2"/>
-      <c r="F898" s="2"/>
-      <c r="G898" s="2"/>
-      <c r="H898" s="2"/>
-      <c r="I898" s="2"/>
-      <c r="J898" s="2" t="s">
+      <c r="C898" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D898" s="5"/>
+      <c r="E898" s="5"/>
+      <c r="F898" s="5"/>
+      <c r="G898" s="5"/>
+      <c r="H898" s="5"/>
+      <c r="I898" s="5"/>
+      <c r="J898" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K898" s="2"/>
-      <c r="L898" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M898" s="2" t="s">
+      <c r="K898" s="5"/>
+      <c r="L898" s="7"/>
+      <c r="M898" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N898" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O898" s="2"/>
-      <c r="P898" s="2"/>
-      <c r="Q898" s="2"/>
-      <c r="R898" s="2"/>
-      <c r="S898" s="2"/>
-      <c r="T898" s="2"/>
-      <c r="U898" s="2" t="s">
+      <c r="N898" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O898" s="5"/>
+      <c r="P898" s="5"/>
+      <c r="Q898" s="5"/>
+      <c r="R898" s="5"/>
+      <c r="S898" s="5"/>
+      <c r="T898" s="5"/>
+      <c r="U898" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V898" s="2"/>
+      <c r="V898" s="5"/>
     </row>
     <row r="899" spans="1:22">
       <c r="A899" s="2" t="s">
@@ -50757,9 +50511,7 @@
         <v>715</v>
       </c>
       <c r="K906" s="2"/>
-      <c r="L906" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L906" s="7"/>
       <c r="M906" s="2" t="s">
         <v>165</v>
       </c>
@@ -50786,46 +50538,44 @@
       <c r="V906" s="2"/>
     </row>
     <row r="907" spans="1:22">
-      <c r="A907" s="2" t="s">
+      <c r="A907" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="B907" s="2" t="s">
+      <c r="B907" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C907" s="2" t="s">
+      <c r="C907" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D907" s="2"/>
-      <c r="E907" s="2"/>
-      <c r="F907" s="2"/>
-      <c r="G907" s="2"/>
-      <c r="H907" s="2"/>
-      <c r="I907" s="2"/>
-      <c r="J907" s="2" t="s">
+      <c r="D907" s="5"/>
+      <c r="E907" s="5"/>
+      <c r="F907" s="5"/>
+      <c r="G907" s="5"/>
+      <c r="H907" s="5"/>
+      <c r="I907" s="5"/>
+      <c r="J907" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="K907" s="2" t="s">
+      <c r="K907" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="L907" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M907" s="2" t="s">
+      <c r="L907" s="7"/>
+      <c r="M907" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N907" s="2" t="s">
+      <c r="N907" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O907" s="2"/>
-      <c r="P907" s="2"/>
-      <c r="Q907" s="2"/>
-      <c r="R907" s="2"/>
-      <c r="S907" s="2"/>
-      <c r="T907" s="2"/>
-      <c r="U907" s="2" t="s">
+      <c r="O907" s="5"/>
+      <c r="P907" s="5"/>
+      <c r="Q907" s="5"/>
+      <c r="R907" s="5"/>
+      <c r="S907" s="5"/>
+      <c r="T907" s="5"/>
+      <c r="U907" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="V907" s="2" t="s">
+      <c r="V907" s="5" t="s">
         <v>936</v>
       </c>
     </row>
@@ -50953,9 +50703,7 @@
         <v>714</v>
       </c>
       <c r="K910" s="2"/>
-      <c r="L910" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L910" s="7"/>
       <c r="M910" s="2" t="s">
         <v>166</v>
       </c>
@@ -51240,46 +50988,44 @@
       </c>
     </row>
     <row r="916" spans="1:22">
-      <c r="A916" s="2" t="s">
+      <c r="A916" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="B916" s="2" t="s">
+      <c r="B916" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C916" s="2" t="s">
+      <c r="C916" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D916" s="2"/>
-      <c r="E916" s="2"/>
-      <c r="F916" s="2"/>
-      <c r="G916" s="2"/>
-      <c r="H916" s="2"/>
-      <c r="I916" s="2"/>
-      <c r="J916" s="2" t="s">
+      <c r="D916" s="5"/>
+      <c r="E916" s="5"/>
+      <c r="F916" s="5"/>
+      <c r="G916" s="5"/>
+      <c r="H916" s="5"/>
+      <c r="I916" s="5"/>
+      <c r="J916" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="K916" s="2" t="s">
+      <c r="K916" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="L916" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M916" s="2" t="s">
+      <c r="L916" s="7"/>
+      <c r="M916" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N916" s="2" t="s">
+      <c r="N916" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O916" s="2"/>
-      <c r="P916" s="2"/>
-      <c r="Q916" s="2"/>
-      <c r="R916" s="2"/>
-      <c r="S916" s="2"/>
-      <c r="T916" s="2"/>
-      <c r="U916" s="2" t="s">
+      <c r="O916" s="5"/>
+      <c r="P916" s="5"/>
+      <c r="Q916" s="5"/>
+      <c r="R916" s="5"/>
+      <c r="S916" s="5"/>
+      <c r="T916" s="5"/>
+      <c r="U916" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="V916" s="2" t="s">
+      <c r="V916" s="5" t="s">
         <v>941</v>
       </c>
     </row>
@@ -51708,44 +51454,42 @@
       </c>
     </row>
     <row r="925" spans="1:22">
-      <c r="A925" s="2" t="s">
+      <c r="A925" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="B925" s="2" t="s">
+      <c r="B925" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C925" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D925" s="2"/>
-      <c r="E925" s="2"/>
-      <c r="F925" s="2"/>
-      <c r="G925" s="2"/>
-      <c r="H925" s="2"/>
-      <c r="I925" s="2"/>
-      <c r="J925" s="2" t="s">
+      <c r="C925" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D925" s="5"/>
+      <c r="E925" s="5"/>
+      <c r="F925" s="5"/>
+      <c r="G925" s="5"/>
+      <c r="H925" s="5"/>
+      <c r="I925" s="5"/>
+      <c r="J925" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K925" s="2"/>
-      <c r="L925" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M925" s="2" t="s">
+      <c r="K925" s="5"/>
+      <c r="L925" s="7"/>
+      <c r="M925" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N925" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O925" s="2"/>
-      <c r="P925" s="2"/>
-      <c r="Q925" s="2"/>
-      <c r="R925" s="2"/>
-      <c r="S925" s="2"/>
-      <c r="T925" s="2"/>
-      <c r="U925" s="2" t="s">
+      <c r="N925" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O925" s="5"/>
+      <c r="P925" s="5"/>
+      <c r="Q925" s="5"/>
+      <c r="R925" s="5"/>
+      <c r="S925" s="5"/>
+      <c r="T925" s="5"/>
+      <c r="U925" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V925" s="2"/>
+      <c r="V925" s="5"/>
     </row>
     <row r="926" spans="1:22">
       <c r="A926" s="2" t="s">
@@ -52014,46 +51758,44 @@
       </c>
     </row>
     <row r="931" spans="1:22">
-      <c r="A931" s="2" t="s">
+      <c r="A931" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="B931" s="2" t="s">
+      <c r="B931" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C931" s="2" t="s">
+      <c r="C931" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D931" s="2"/>
-      <c r="E931" s="2"/>
-      <c r="F931" s="2"/>
-      <c r="G931" s="2"/>
-      <c r="H931" s="2"/>
-      <c r="I931" s="2"/>
-      <c r="J931" s="2" t="s">
+      <c r="D931" s="5"/>
+      <c r="E931" s="5"/>
+      <c r="F931" s="5"/>
+      <c r="G931" s="5"/>
+      <c r="H931" s="5"/>
+      <c r="I931" s="5"/>
+      <c r="J931" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="K931" s="2" t="s">
+      <c r="K931" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="L931" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M931" s="2" t="s">
+      <c r="L931" s="7"/>
+      <c r="M931" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N931" s="2" t="s">
+      <c r="N931" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O931" s="2"/>
-      <c r="P931" s="2"/>
-      <c r="Q931" s="2"/>
-      <c r="R931" s="2"/>
-      <c r="S931" s="2"/>
-      <c r="T931" s="2"/>
-      <c r="U931" s="2" t="s">
+      <c r="O931" s="5"/>
+      <c r="P931" s="5"/>
+      <c r="Q931" s="5"/>
+      <c r="R931" s="5"/>
+      <c r="S931" s="5"/>
+      <c r="T931" s="5"/>
+      <c r="U931" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="V931" s="2" t="s">
+      <c r="V931" s="5" t="s">
         <v>942</v>
       </c>
     </row>
@@ -52324,44 +52066,42 @@
       </c>
     </row>
     <row r="937" spans="1:22">
-      <c r="A937" s="2" t="s">
+      <c r="A937" s="5" t="s">
         <v>2127</v>
       </c>
-      <c r="B937" s="2" t="s">
+      <c r="B937" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C937" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D937" s="2"/>
-      <c r="E937" s="2"/>
-      <c r="F937" s="2"/>
-      <c r="G937" s="2"/>
-      <c r="H937" s="2"/>
-      <c r="I937" s="2"/>
-      <c r="J937" s="2" t="s">
+      <c r="C937" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D937" s="5"/>
+      <c r="E937" s="5"/>
+      <c r="F937" s="5"/>
+      <c r="G937" s="5"/>
+      <c r="H937" s="5"/>
+      <c r="I937" s="5"/>
+      <c r="J937" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K937" s="2"/>
-      <c r="L937" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M937" s="2" t="s">
+      <c r="K937" s="5"/>
+      <c r="L937" s="7"/>
+      <c r="M937" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N937" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O937" s="2"/>
-      <c r="P937" s="2"/>
-      <c r="Q937" s="2"/>
-      <c r="R937" s="2"/>
-      <c r="S937" s="2"/>
-      <c r="T937" s="2"/>
-      <c r="U937" s="2" t="s">
+      <c r="N937" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O937" s="5"/>
+      <c r="P937" s="5"/>
+      <c r="Q937" s="5"/>
+      <c r="R937" s="5"/>
+      <c r="S937" s="5"/>
+      <c r="T937" s="5"/>
+      <c r="U937" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V937" s="2"/>
+      <c r="V937" s="5"/>
     </row>
     <row r="938" spans="1:22">
       <c r="A938" s="2" t="s">
@@ -52555,9 +52295,7 @@
       <c r="K941" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="L941" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L941" s="7"/>
       <c r="M941" s="2" t="s">
         <v>170</v>
       </c>
@@ -52686,46 +52424,44 @@
       <c r="V943" s="2"/>
     </row>
     <row r="944" spans="1:22">
-      <c r="A944" s="2" t="s">
+      <c r="A944" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="B944" s="2" t="s">
+      <c r="B944" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C944" s="2" t="s">
+      <c r="C944" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D944" s="2"/>
-      <c r="E944" s="2"/>
-      <c r="F944" s="2"/>
-      <c r="G944" s="2"/>
-      <c r="H944" s="2"/>
-      <c r="I944" s="2"/>
-      <c r="J944" s="2" t="s">
+      <c r="D944" s="5"/>
+      <c r="E944" s="5"/>
+      <c r="F944" s="5"/>
+      <c r="G944" s="5"/>
+      <c r="H944" s="5"/>
+      <c r="I944" s="5"/>
+      <c r="J944" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="K944" s="2" t="s">
+      <c r="K944" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="L944" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M944" s="2" t="s">
+      <c r="L944" s="7"/>
+      <c r="M944" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N944" s="2" t="s">
+      <c r="N944" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O944" s="2"/>
-      <c r="P944" s="2"/>
-      <c r="Q944" s="2"/>
-      <c r="R944" s="2"/>
-      <c r="S944" s="2"/>
-      <c r="T944" s="2"/>
-      <c r="U944" s="2" t="s">
+      <c r="O944" s="5"/>
+      <c r="P944" s="5"/>
+      <c r="Q944" s="5"/>
+      <c r="R944" s="5"/>
+      <c r="S944" s="5"/>
+      <c r="T944" s="5"/>
+      <c r="U944" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="V944" s="2" t="s">
+      <c r="V944" s="5" t="s">
         <v>944</v>
       </c>
     </row>
@@ -52996,44 +52732,42 @@
       </c>
     </row>
     <row r="950" spans="1:22">
-      <c r="A950" s="2" t="s">
+      <c r="A950" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="B950" s="2" t="s">
+      <c r="B950" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C950" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D950" s="2"/>
-      <c r="E950" s="2"/>
-      <c r="F950" s="2"/>
-      <c r="G950" s="2"/>
-      <c r="H950" s="2"/>
-      <c r="I950" s="2"/>
-      <c r="J950" s="2" t="s">
+      <c r="C950" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D950" s="5"/>
+      <c r="E950" s="5"/>
+      <c r="F950" s="5"/>
+      <c r="G950" s="5"/>
+      <c r="H950" s="5"/>
+      <c r="I950" s="5"/>
+      <c r="J950" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K950" s="2"/>
-      <c r="L950" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M950" s="2" t="s">
+      <c r="K950" s="5"/>
+      <c r="L950" s="7"/>
+      <c r="M950" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N950" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O950" s="2"/>
-      <c r="P950" s="2"/>
-      <c r="Q950" s="2"/>
-      <c r="R950" s="2"/>
-      <c r="S950" s="2"/>
-      <c r="T950" s="2"/>
-      <c r="U950" s="2" t="s">
+      <c r="N950" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O950" s="5"/>
+      <c r="P950" s="5"/>
+      <c r="Q950" s="5"/>
+      <c r="R950" s="5"/>
+      <c r="S950" s="5"/>
+      <c r="T950" s="5"/>
+      <c r="U950" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V950" s="2"/>
+      <c r="V950" s="5"/>
     </row>
     <row r="951" spans="1:22">
       <c r="A951" s="2" t="s">
@@ -53240,44 +52974,42 @@
       <c r="V954" s="2"/>
     </row>
     <row r="955" spans="1:22">
-      <c r="A955" s="2" t="s">
+      <c r="A955" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="B955" s="2" t="s">
+      <c r="B955" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C955" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D955" s="2"/>
-      <c r="E955" s="2"/>
-      <c r="F955" s="2"/>
-      <c r="G955" s="2"/>
-      <c r="H955" s="2"/>
-      <c r="I955" s="2"/>
-      <c r="J955" s="2" t="s">
+      <c r="C955" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D955" s="5"/>
+      <c r="E955" s="5"/>
+      <c r="F955" s="5"/>
+      <c r="G955" s="5"/>
+      <c r="H955" s="5"/>
+      <c r="I955" s="5"/>
+      <c r="J955" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K955" s="2"/>
-      <c r="L955" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M955" s="2" t="s">
+      <c r="K955" s="5"/>
+      <c r="L955" s="7"/>
+      <c r="M955" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N955" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O955" s="2"/>
-      <c r="P955" s="2"/>
-      <c r="Q955" s="2"/>
-      <c r="R955" s="2"/>
-      <c r="S955" s="2"/>
-      <c r="T955" s="2"/>
-      <c r="U955" s="2" t="s">
+      <c r="N955" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O955" s="5"/>
+      <c r="P955" s="5"/>
+      <c r="Q955" s="5"/>
+      <c r="R955" s="5"/>
+      <c r="S955" s="5"/>
+      <c r="T955" s="5"/>
+      <c r="U955" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V955" s="2"/>
+      <c r="V955" s="5"/>
     </row>
     <row r="956" spans="1:22">
       <c r="A956" s="2" t="s">
@@ -53469,9 +53201,7 @@
         <v>715</v>
       </c>
       <c r="K959" s="2"/>
-      <c r="L959" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L959" s="7"/>
       <c r="M959" s="2" t="s">
         <v>170</v>
       </c>
@@ -53598,44 +53328,42 @@
       <c r="V961" s="2"/>
     </row>
     <row r="962" spans="1:22">
-      <c r="A962" s="2" t="s">
+      <c r="A962" s="5" t="s">
         <v>2152</v>
       </c>
-      <c r="B962" s="2" t="s">
+      <c r="B962" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C962" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D962" s="2"/>
-      <c r="E962" s="2"/>
-      <c r="F962" s="2"/>
-      <c r="G962" s="2"/>
-      <c r="H962" s="2"/>
-      <c r="I962" s="2"/>
-      <c r="J962" s="2" t="s">
+      <c r="C962" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D962" s="5"/>
+      <c r="E962" s="5"/>
+      <c r="F962" s="5"/>
+      <c r="G962" s="5"/>
+      <c r="H962" s="5"/>
+      <c r="I962" s="5"/>
+      <c r="J962" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K962" s="2"/>
-      <c r="L962" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M962" s="2" t="s">
+      <c r="K962" s="5"/>
+      <c r="L962" s="7"/>
+      <c r="M962" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N962" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O962" s="2"/>
-      <c r="P962" s="2"/>
-      <c r="Q962" s="2"/>
-      <c r="R962" s="2"/>
-      <c r="S962" s="2"/>
-      <c r="T962" s="2"/>
-      <c r="U962" s="2" t="s">
+      <c r="N962" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O962" s="5"/>
+      <c r="P962" s="5"/>
+      <c r="Q962" s="5"/>
+      <c r="R962" s="5"/>
+      <c r="S962" s="5"/>
+      <c r="T962" s="5"/>
+      <c r="U962" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V962" s="2"/>
+      <c r="V962" s="5"/>
     </row>
     <row r="963" spans="1:22">
       <c r="A963" s="2" t="s">
@@ -53769,9 +53497,7 @@
         <v>715</v>
       </c>
       <c r="K965" s="2"/>
-      <c r="L965" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L965" s="7"/>
       <c r="M965" s="2" t="s">
         <v>173</v>
       </c>
@@ -53995,9 +53721,7 @@
         <v>715</v>
       </c>
       <c r="K969" s="2"/>
-      <c r="L969" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L969" s="7"/>
       <c r="M969" s="2" t="s">
         <v>173</v>
       </c>
@@ -54024,46 +53748,44 @@
       <c r="V969" s="2"/>
     </row>
     <row r="970" spans="1:22">
-      <c r="A970" s="2" t="s">
+      <c r="A970" s="5" t="s">
         <v>2160</v>
       </c>
-      <c r="B970" s="2" t="s">
+      <c r="B970" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C970" s="2" t="s">
+      <c r="C970" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2" t="s">
+      <c r="D970" s="5"/>
+      <c r="E970" s="5"/>
+      <c r="F970" s="5"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
+      <c r="I970" s="5"/>
+      <c r="J970" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="K970" s="2" t="s">
+      <c r="K970" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="L970" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M970" s="2" t="s">
+      <c r="L970" s="7"/>
+      <c r="M970" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N970" s="2" t="s">
+      <c r="N970" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2" t="s">
+      <c r="O970" s="5"/>
+      <c r="P970" s="5"/>
+      <c r="Q970" s="5"/>
+      <c r="R970" s="5"/>
+      <c r="S970" s="5"/>
+      <c r="T970" s="5"/>
+      <c r="U970" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="V970" s="2" t="s">
+      <c r="V970" s="5" t="s">
         <v>946</v>
       </c>
     </row>
@@ -54311,9 +54033,7 @@
         <v>715</v>
       </c>
       <c r="K975" s="2"/>
-      <c r="L975" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L975" s="7"/>
       <c r="M975" s="2" t="s">
         <v>174</v>
       </c>
@@ -54664,46 +54384,44 @@
       </c>
     </row>
     <row r="982" spans="1:22">
-      <c r="A982" s="2" t="s">
+      <c r="A982" s="5" t="s">
         <v>2172</v>
       </c>
-      <c r="B982" s="2" t="s">
+      <c r="B982" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C982" s="2" t="s">
+      <c r="C982" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2" t="s">
+      <c r="D982" s="5"/>
+      <c r="E982" s="5"/>
+      <c r="F982" s="5"/>
+      <c r="G982" s="5"/>
+      <c r="H982" s="5"/>
+      <c r="I982" s="5"/>
+      <c r="J982" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K982" s="2" t="s">
+      <c r="K982" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="L982" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M982" s="2" t="s">
+      <c r="L982" s="7"/>
+      <c r="M982" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N982" s="2" t="s">
+      <c r="N982" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2" t="s">
+      <c r="O982" s="5"/>
+      <c r="P982" s="5"/>
+      <c r="Q982" s="5"/>
+      <c r="R982" s="5"/>
+      <c r="S982" s="5"/>
+      <c r="T982" s="5"/>
+      <c r="U982" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V982" s="2" t="s">
+      <c r="V982" s="5" t="s">
         <v>948</v>
       </c>
     </row>
@@ -54951,9 +54669,7 @@
         <v>715</v>
       </c>
       <c r="K987" s="2"/>
-      <c r="L987" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L987" s="7"/>
       <c r="M987" s="2" t="s">
         <v>176</v>
       </c>
@@ -55362,46 +55078,44 @@
       </c>
     </row>
     <row r="995" spans="1:22">
-      <c r="A995" s="2" t="s">
+      <c r="A995" s="5" t="s">
         <v>2185</v>
       </c>
-      <c r="B995" s="2" t="s">
+      <c r="B995" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C995" s="2" t="s">
+      <c r="C995" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2" t="s">
+      <c r="D995" s="5"/>
+      <c r="E995" s="5"/>
+      <c r="F995" s="5"/>
+      <c r="G995" s="5"/>
+      <c r="H995" s="5"/>
+      <c r="I995" s="5"/>
+      <c r="J995" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K995" s="2" t="s">
+      <c r="K995" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="L995" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M995" s="2" t="s">
+      <c r="L995" s="7"/>
+      <c r="M995" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N995" s="2" t="s">
+      <c r="N995" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2" t="s">
+      <c r="O995" s="5"/>
+      <c r="P995" s="5"/>
+      <c r="Q995" s="5"/>
+      <c r="R995" s="5"/>
+      <c r="S995" s="5"/>
+      <c r="T995" s="5"/>
+      <c r="U995" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V995" s="2" t="s">
+      <c r="V995" s="5" t="s">
         <v>950</v>
       </c>
     </row>
@@ -55784,46 +55498,44 @@
       <c r="V1002" s="2"/>
     </row>
     <row r="1003" spans="1:22">
-      <c r="A1003" s="2" t="s">
+      <c r="A1003" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="B1003" s="2" t="s">
+      <c r="B1003" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C1003" s="2" t="s">
+      <c r="C1003" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2" t="s">
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+      <c r="G1003" s="5"/>
+      <c r="H1003" s="5"/>
+      <c r="I1003" s="5"/>
+      <c r="J1003" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="K1003" s="2" t="s">
+      <c r="K1003" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="L1003" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="M1003" s="2" t="s">
+      <c r="L1003" s="7"/>
+      <c r="M1003" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N1003" s="2" t="s">
+      <c r="N1003" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2" t="s">
+      <c r="O1003" s="5"/>
+      <c r="P1003" s="5"/>
+      <c r="Q1003" s="5"/>
+      <c r="R1003" s="5"/>
+      <c r="S1003" s="5"/>
+      <c r="T1003" s="5"/>
+      <c r="U1003" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="V1003" s="2" t="s">
+      <c r="V1003" s="5" t="s">
         <v>952</v>
       </c>
     </row>
@@ -56071,9 +55783,7 @@
         <v>715</v>
       </c>
       <c r="K1008" s="2"/>
-      <c r="L1008" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="L1008" s="7"/>
       <c r="M1008" s="2" t="s">
         <v>178</v>
       </c>
